--- a/data/pca/factorExposure/factorExposure_2018-02-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.005554312411680605</v>
+        <v>-0.01168364017014527</v>
       </c>
       <c r="C2">
-        <v>-0.01975272729375402</v>
+        <v>0.02501028827131175</v>
       </c>
       <c r="D2">
-        <v>-0.01989808290954906</v>
+        <v>-0.02410997380147273</v>
       </c>
       <c r="E2">
-        <v>0.02161528697598758</v>
+        <v>0.01895283577797018</v>
       </c>
       <c r="F2">
-        <v>-0.07650982665643166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01144316693901961</v>
+      </c>
+      <c r="G2">
+        <v>0.009643689852705601</v>
+      </c>
+      <c r="H2">
+        <v>0.0411011139074855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09165631844203158</v>
+        <v>-0.05070573176817152</v>
       </c>
       <c r="C3">
-        <v>-0.03430035940839767</v>
+        <v>0.07450517087981633</v>
       </c>
       <c r="D3">
-        <v>0.01137513562974849</v>
+        <v>-0.006442076406911139</v>
       </c>
       <c r="E3">
-        <v>0.107840881197388</v>
+        <v>0.06068364589913319</v>
       </c>
       <c r="F3">
-        <v>-0.2872779475267627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.04955199879584638</v>
+      </c>
+      <c r="G3">
+        <v>0.0193668205439291</v>
+      </c>
+      <c r="H3">
+        <v>0.1166248131893318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0400183193519774</v>
+        <v>-0.03643823207772331</v>
       </c>
       <c r="C4">
-        <v>-0.0004565838532927563</v>
+        <v>0.06870993573233282</v>
       </c>
       <c r="D4">
-        <v>-0.02543256845068446</v>
+        <v>-0.01679417933648793</v>
       </c>
       <c r="E4">
-        <v>-0.02347661459142958</v>
+        <v>-0.009555313743697193</v>
       </c>
       <c r="F4">
-        <v>-0.06512481304249458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.02372188890082485</v>
+      </c>
+      <c r="G4">
+        <v>0.04826369480765282</v>
+      </c>
+      <c r="H4">
+        <v>0.04891176102604231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03789637288585501</v>
+        <v>-0.01714139728003906</v>
       </c>
       <c r="C6">
-        <v>-0.0113860253260956</v>
+        <v>0.06169170890241246</v>
       </c>
       <c r="D6">
-        <v>-0.036743840762384</v>
+        <v>-0.01217865307789238</v>
       </c>
       <c r="E6">
-        <v>-0.02683155578483067</v>
+        <v>-0.0122321239285149</v>
       </c>
       <c r="F6">
-        <v>-0.03594472373461251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.001259347472502501</v>
+      </c>
+      <c r="G6">
+        <v>0.02963577112620164</v>
+      </c>
+      <c r="H6">
+        <v>0.04504739366350817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0402148788237336</v>
+        <v>-0.004308048834719132</v>
       </c>
       <c r="C7">
-        <v>0.03468991723891202</v>
+        <v>0.03809200999680886</v>
       </c>
       <c r="D7">
-        <v>-0.0184797127565067</v>
+        <v>-0.01051540615060021</v>
       </c>
       <c r="E7">
-        <v>-0.006273122296622398</v>
+        <v>-0.02029118127636826</v>
       </c>
       <c r="F7">
-        <v>-0.03662004542795372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04532462418928823</v>
+      </c>
+      <c r="G7">
+        <v>-0.0006045532329749114</v>
+      </c>
+      <c r="H7">
+        <v>0.02327940924887793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009941579006812159</v>
+        <v>0.005261673944929014</v>
       </c>
       <c r="C8">
-        <v>0.009111764999710132</v>
+        <v>0.004444262562563511</v>
       </c>
       <c r="D8">
-        <v>-0.0275144905932119</v>
+        <v>-0.001725267937904678</v>
       </c>
       <c r="E8">
-        <v>-0.01711902524448774</v>
+        <v>0.0008089870096540596</v>
       </c>
       <c r="F8">
-        <v>-0.06318546441163439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02126285631128466</v>
+      </c>
+      <c r="G8">
+        <v>0.01508109661839143</v>
+      </c>
+      <c r="H8">
+        <v>0.02310068750632966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03465938344581846</v>
+        <v>-0.01804184781364379</v>
       </c>
       <c r="C9">
-        <v>-0.0003115642641338772</v>
+        <v>0.04877143836160425</v>
       </c>
       <c r="D9">
-        <v>-0.02670874952413211</v>
+        <v>-0.01189223394724851</v>
       </c>
       <c r="E9">
-        <v>0.00711541220285987</v>
+        <v>-0.006986943270720344</v>
       </c>
       <c r="F9">
-        <v>-0.06879068716661829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01673513052939549</v>
+      </c>
+      <c r="G9">
+        <v>0.01480135814200229</v>
+      </c>
+      <c r="H9">
+        <v>0.04731066155987793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05334704014407161</v>
+        <v>-0.1350309138444485</v>
       </c>
       <c r="C10">
-        <v>-0.02026889097783412</v>
+        <v>-0.1445147687035611</v>
       </c>
       <c r="D10">
-        <v>0.1504607882934199</v>
+        <v>0.01915521595995452</v>
       </c>
       <c r="E10">
-        <v>0.08354807405846902</v>
+        <v>0.03425768279471204</v>
       </c>
       <c r="F10">
-        <v>-0.01721451383320715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.02379160581178889</v>
+      </c>
+      <c r="G10">
+        <v>-0.030313040808633</v>
+      </c>
+      <c r="H10">
+        <v>-0.001340651717698042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02647448164672716</v>
+        <v>-0.01322274975515578</v>
       </c>
       <c r="C11">
-        <v>-0.01354017247086793</v>
+        <v>0.04902492659364357</v>
       </c>
       <c r="D11">
-        <v>-0.03779514790577548</v>
+        <v>0.001488249945248247</v>
       </c>
       <c r="E11">
-        <v>-0.02311489788946449</v>
+        <v>-0.010441741288886</v>
       </c>
       <c r="F11">
-        <v>-0.02706259489856103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.002744289251239872</v>
+      </c>
+      <c r="G11">
+        <v>0.01331653657722723</v>
+      </c>
+      <c r="H11">
+        <v>0.04381705143429913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03851889321151148</v>
+        <v>-0.01708695817428893</v>
       </c>
       <c r="C12">
-        <v>-0.01239748500140217</v>
+        <v>0.04584455781928979</v>
       </c>
       <c r="D12">
-        <v>-0.03364970501362501</v>
+        <v>-0.00249878398651256</v>
       </c>
       <c r="E12">
-        <v>-0.03319995116820559</v>
+        <v>-0.01866825691544489</v>
       </c>
       <c r="F12">
-        <v>-0.006363407097461629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.005979441028736275</v>
+      </c>
+      <c r="G12">
+        <v>0.006825402413668098</v>
+      </c>
+      <c r="H12">
+        <v>0.0180199211469515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.009167863500034561</v>
+        <v>-0.01130828638305087</v>
       </c>
       <c r="C13">
-        <v>-0.01693076668055479</v>
+        <v>0.02382890337234896</v>
       </c>
       <c r="D13">
-        <v>-0.004334341261747069</v>
+        <v>-0.0209091754372578</v>
       </c>
       <c r="E13">
-        <v>0.009044432936833895</v>
+        <v>0.01592564178975876</v>
       </c>
       <c r="F13">
-        <v>-0.0663765305628813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.000522067431805184</v>
+      </c>
+      <c r="G13">
+        <v>0.02857193720717831</v>
+      </c>
+      <c r="H13">
+        <v>0.05970215448490796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0226275879228741</v>
+        <v>-0.005629888082368588</v>
       </c>
       <c r="C14">
-        <v>0.009262333040456974</v>
+        <v>0.02015628417814427</v>
       </c>
       <c r="D14">
-        <v>-0.009959747493105124</v>
+        <v>-0.006035358806497308</v>
       </c>
       <c r="E14">
-        <v>-0.007879795004788677</v>
+        <v>-0.009167204098963927</v>
       </c>
       <c r="F14">
-        <v>-0.04650836289074769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.02328377080286521</v>
+      </c>
+      <c r="G14">
+        <v>0.0111017133762798</v>
+      </c>
+      <c r="H14">
+        <v>0.01687496908061388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02604446377091349</v>
+        <v>-0.01382398186948516</v>
       </c>
       <c r="C16">
-        <v>-0.01142965061496598</v>
+        <v>0.04175699466015066</v>
       </c>
       <c r="D16">
-        <v>-0.03857686397810785</v>
+        <v>0.001559638281503366</v>
       </c>
       <c r="E16">
-        <v>-0.024869108643587</v>
+        <v>-0.008826972594045759</v>
       </c>
       <c r="F16">
-        <v>-0.03317713535969522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0023536324694256</v>
+      </c>
+      <c r="G16">
+        <v>0.01255983112419712</v>
+      </c>
+      <c r="H16">
+        <v>0.03278963416200011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03359210094795379</v>
+        <v>-0.01625156109415394</v>
       </c>
       <c r="C19">
-        <v>-0.007101399005182296</v>
+        <v>0.045279577055476</v>
       </c>
       <c r="D19">
-        <v>-0.02606878695610154</v>
+        <v>-0.01026231420271759</v>
       </c>
       <c r="E19">
-        <v>-0.02793653245894498</v>
+        <v>0.01487129619435894</v>
       </c>
       <c r="F19">
-        <v>-0.08692446178363292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02793175373672017</v>
+      </c>
+      <c r="G19">
+        <v>0.03701011064135512</v>
+      </c>
+      <c r="H19">
+        <v>0.05349052759752022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001987766980781871</v>
+        <v>-0.0004382518199592947</v>
       </c>
       <c r="C20">
-        <v>0.01333752700748447</v>
+        <v>0.02176505921912195</v>
       </c>
       <c r="D20">
-        <v>0.001476723731719657</v>
+        <v>-0.01030421940798815</v>
       </c>
       <c r="E20">
-        <v>-0.0005185094647286754</v>
+        <v>0.008131397525046975</v>
       </c>
       <c r="F20">
-        <v>-0.04782161399074387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01923226013375646</v>
+      </c>
+      <c r="G20">
+        <v>0.02082287019891563</v>
+      </c>
+      <c r="H20">
+        <v>0.02809454121540998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03033658100953325</v>
+        <v>-0.002518877723557414</v>
       </c>
       <c r="C21">
-        <v>0.008804653430785373</v>
+        <v>0.02026188318203273</v>
       </c>
       <c r="D21">
-        <v>-0.02478608791928369</v>
+        <v>-0.01343210766144579</v>
       </c>
       <c r="E21">
-        <v>-0.005713851663490853</v>
+        <v>0.0111508214066547</v>
       </c>
       <c r="F21">
-        <v>-0.03565388843566821</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03008938015182842</v>
+      </c>
+      <c r="G21">
+        <v>0.004188140938092248</v>
+      </c>
+      <c r="H21">
+        <v>0.03573899123809721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02364005122137333</v>
+        <v>-0.008395941938322977</v>
       </c>
       <c r="C24">
-        <v>-0.01190166863031891</v>
+        <v>0.04060018652226802</v>
       </c>
       <c r="D24">
-        <v>-0.02570477547508703</v>
+        <v>-0.003531119909590303</v>
       </c>
       <c r="E24">
-        <v>-0.02022873100993132</v>
+        <v>-0.01364279054513089</v>
       </c>
       <c r="F24">
-        <v>-0.02461147261825374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.002576027101201672</v>
+      </c>
+      <c r="G24">
+        <v>0.009792319509341965</v>
+      </c>
+      <c r="H24">
+        <v>0.03647660289484211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03485342841011783</v>
+        <v>-0.02384389124225237</v>
       </c>
       <c r="C25">
-        <v>-0.01372178493973781</v>
+        <v>0.05012749401980095</v>
       </c>
       <c r="D25">
-        <v>-0.0309745473437107</v>
+        <v>-0.006446936219173565</v>
       </c>
       <c r="E25">
-        <v>-0.01337688569118459</v>
+        <v>-0.01822551181427507</v>
       </c>
       <c r="F25">
-        <v>-0.03982069239224736</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.003669017104692212</v>
+      </c>
+      <c r="G25">
+        <v>0.01707975568878439</v>
+      </c>
+      <c r="H25">
+        <v>0.03375489162007448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01176724184664318</v>
+        <v>-0.00269450615539019</v>
       </c>
       <c r="C26">
-        <v>-0.0002834767550787381</v>
+        <v>0.005636480886429943</v>
       </c>
       <c r="D26">
-        <v>-0.01568495672414236</v>
+        <v>-0.02284942316560245</v>
       </c>
       <c r="E26">
-        <v>0.02304275672739294</v>
+        <v>-0.001415963760013096</v>
       </c>
       <c r="F26">
-        <v>-0.0462076648000883</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01124867707945573</v>
+      </c>
+      <c r="G26">
+        <v>-0.001053490790938157</v>
+      </c>
+      <c r="H26">
+        <v>0.01610573574566131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.01728850986558398</v>
+        <v>-0.005212960666466314</v>
       </c>
       <c r="C27">
-        <v>0.001269225311020598</v>
+        <v>0.004060358530294442</v>
       </c>
       <c r="D27">
-        <v>0.004156810111013685</v>
+        <v>0.001318446206424674</v>
       </c>
       <c r="E27">
-        <v>-0.01628812354989017</v>
+        <v>-0.002042067630243753</v>
       </c>
       <c r="F27">
-        <v>-0.01682691524027864</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01073054468627205</v>
+      </c>
+      <c r="G27">
+        <v>0.004122429275539027</v>
+      </c>
+      <c r="H27">
+        <v>-0.004639022295399078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09636096688201969</v>
+        <v>-0.1872440971107758</v>
       </c>
       <c r="C28">
-        <v>-0.03102828081124781</v>
+        <v>-0.181361407841571</v>
       </c>
       <c r="D28">
-        <v>0.2130250969817186</v>
+        <v>0.01292021565633533</v>
       </c>
       <c r="E28">
-        <v>0.1138629721489344</v>
+        <v>0.02607093924134895</v>
       </c>
       <c r="F28">
-        <v>-0.00451958915092594</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03633876659318504</v>
+      </c>
+      <c r="G28">
+        <v>-0.03094930046248167</v>
+      </c>
+      <c r="H28">
+        <v>-0.0003657971014847343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02463782272483996</v>
+        <v>-0.01046252884515405</v>
       </c>
       <c r="C29">
-        <v>0.005465825748009756</v>
+        <v>0.01913425246742869</v>
       </c>
       <c r="D29">
-        <v>-0.009763065359495763</v>
+        <v>-0.005015654647794212</v>
       </c>
       <c r="E29">
-        <v>-0.009123586137077725</v>
+        <v>-0.007578740431525591</v>
       </c>
       <c r="F29">
-        <v>-0.04465586061775291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02275237628133282</v>
+      </c>
+      <c r="G29">
+        <v>0.009841855422168588</v>
+      </c>
+      <c r="H29">
+        <v>0.006682057343477634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03246068881218532</v>
+        <v>-0.02386545450147482</v>
       </c>
       <c r="C30">
-        <v>-0.05564861267985905</v>
+        <v>0.08575181581873445</v>
       </c>
       <c r="D30">
-        <v>-0.0528804680036768</v>
+        <v>-0.02134669822651292</v>
       </c>
       <c r="E30">
-        <v>-0.004680599588275484</v>
+        <v>0.004948357807885896</v>
       </c>
       <c r="F30">
-        <v>-0.08311313147319201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02428623834853017</v>
+      </c>
+      <c r="G30">
+        <v>0.04108290601983978</v>
+      </c>
+      <c r="H30">
+        <v>0.06534095662284435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04172407212137919</v>
+        <v>-0.03032396625907592</v>
       </c>
       <c r="C31">
-        <v>-0.0140267256942285</v>
+        <v>0.03085925178695157</v>
       </c>
       <c r="D31">
-        <v>-0.01980509878064907</v>
+        <v>-0.0003292663870038972</v>
       </c>
       <c r="E31">
-        <v>-0.02260424631093868</v>
+        <v>-0.01283470275001779</v>
       </c>
       <c r="F31">
-        <v>-0.03686643415499158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01061455846754815</v>
+      </c>
+      <c r="G31">
+        <v>-0.001153475912551887</v>
+      </c>
+      <c r="H31">
+        <v>-0.001503186679829841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02033060850022846</v>
+        <v>0.003539831286535231</v>
       </c>
       <c r="C32">
-        <v>0.02531178517496282</v>
+        <v>0.01384814072972165</v>
       </c>
       <c r="D32">
-        <v>-0.02880907680811429</v>
+        <v>0.007650122679046969</v>
       </c>
       <c r="E32">
-        <v>-0.01537403682826682</v>
+        <v>0.000484995829371297</v>
       </c>
       <c r="F32">
-        <v>-0.05993494816326821</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04565632574610737</v>
+      </c>
+      <c r="G32">
+        <v>0.03761226427863675</v>
+      </c>
+      <c r="H32">
+        <v>0.04700745595076859</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02804370885860731</v>
+        <v>-0.01413205674821238</v>
       </c>
       <c r="C33">
-        <v>-0.03083024132965137</v>
+        <v>0.0464900869219965</v>
       </c>
       <c r="D33">
-        <v>-0.04510774196264218</v>
+        <v>-0.01048235510618709</v>
       </c>
       <c r="E33">
-        <v>-0.0003807256517578272</v>
+        <v>0.009175019050492898</v>
       </c>
       <c r="F33">
-        <v>-0.05947520422413329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.005654630140739077</v>
+      </c>
+      <c r="G33">
+        <v>0.0006712630696969515</v>
+      </c>
+      <c r="H33">
+        <v>0.04941019918353229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02963901818172083</v>
+        <v>-0.02428929309159728</v>
       </c>
       <c r="C34">
-        <v>-0.00433194780092116</v>
+        <v>0.05066840126621177</v>
       </c>
       <c r="D34">
-        <v>-0.03773382824287974</v>
+        <v>0.009860976943854467</v>
       </c>
       <c r="E34">
-        <v>-0.03050210514159072</v>
+        <v>-0.02536347354128507</v>
       </c>
       <c r="F34">
-        <v>-0.03339191671795395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.006214660639375992</v>
+      </c>
+      <c r="G34">
+        <v>0.01494478544994207</v>
+      </c>
+      <c r="H34">
+        <v>0.03575937528035335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01734067299626341</v>
+        <v>-0.009110652416733318</v>
       </c>
       <c r="C36">
-        <v>0.005894601107403662</v>
+        <v>0.004752357453982535</v>
       </c>
       <c r="D36">
-        <v>-0.002068195880654518</v>
+        <v>-0.009694632744230982</v>
       </c>
       <c r="E36">
-        <v>-0.0006099097180094389</v>
+        <v>-0.002993020309962667</v>
       </c>
       <c r="F36">
-        <v>-0.02778678159937026</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01447406609535056</v>
+      </c>
+      <c r="G36">
+        <v>-0.001054613596845253</v>
+      </c>
+      <c r="H36">
+        <v>0.01155506934561426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01360207341495962</v>
+        <v>-0.0256299983715807</v>
       </c>
       <c r="C38">
-        <v>-0.008896415676093635</v>
+        <v>0.02177198233475517</v>
       </c>
       <c r="D38">
-        <v>-0.003189197111817673</v>
+        <v>0.0110223364077694</v>
       </c>
       <c r="E38">
-        <v>0.02609704382486953</v>
+        <v>-0.006204557261127313</v>
       </c>
       <c r="F38">
-        <v>-0.03858359186056538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.002226025156521974</v>
+      </c>
+      <c r="G38">
+        <v>0.01084768255417621</v>
+      </c>
+      <c r="H38">
+        <v>0.02884904428233097</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02094276251861429</v>
+        <v>0.0005939945987597201</v>
       </c>
       <c r="C39">
-        <v>-0.009003137058024961</v>
+        <v>0.08520578496803713</v>
       </c>
       <c r="D39">
-        <v>-0.05508273333680072</v>
+        <v>-0.008081076924588003</v>
       </c>
       <c r="E39">
-        <v>-0.01747916300177498</v>
+        <v>-0.01129888196494645</v>
       </c>
       <c r="F39">
-        <v>-0.05640742985474236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.008047579377552933</v>
+      </c>
+      <c r="G39">
+        <v>0.02153581520646423</v>
+      </c>
+      <c r="H39">
+        <v>0.07183571427434854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01294965545561325</v>
+        <v>-0.0165670381925061</v>
       </c>
       <c r="C40">
-        <v>-0.03636883615549173</v>
+        <v>0.02534196914435842</v>
       </c>
       <c r="D40">
-        <v>-0.01952682038543625</v>
+        <v>-0.008363326745284104</v>
       </c>
       <c r="E40">
-        <v>-0.02379658013699701</v>
+        <v>0.002148114174552121</v>
       </c>
       <c r="F40">
-        <v>-0.0324767325564428</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0196126107802094</v>
+      </c>
+      <c r="G40">
+        <v>0.02470853413038007</v>
+      </c>
+      <c r="H40">
+        <v>0.04198480566815713</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.006918117738246592</v>
+        <v>-0.009947250903210936</v>
       </c>
       <c r="C41">
-        <v>0.0006609807992907009</v>
+        <v>-0.00861916044932034</v>
       </c>
       <c r="D41">
-        <v>-0.00125601179508838</v>
+        <v>-0.002785674799191049</v>
       </c>
       <c r="E41">
-        <v>0.01534202887578928</v>
+        <v>-0.003318405597525815</v>
       </c>
       <c r="F41">
-        <v>0.00189245855126297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.004370404386967778</v>
+      </c>
+      <c r="G41">
+        <v>-0.01284154890178883</v>
+      </c>
+      <c r="H41">
+        <v>-0.004371890266514813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2214106785206543</v>
+        <v>-0.06570911881702377</v>
       </c>
       <c r="C42">
-        <v>-0.2254401482940871</v>
+        <v>0.2010386438266453</v>
       </c>
       <c r="D42">
-        <v>-0.4384465154758146</v>
+        <v>-0.1194606464234077</v>
       </c>
       <c r="E42">
-        <v>0.6748453526915549</v>
+        <v>0.1365115695106259</v>
       </c>
       <c r="F42">
-        <v>0.4481830299187144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.2300821265131682</v>
+      </c>
+      <c r="G42">
+        <v>-0.9182234637603998</v>
+      </c>
+      <c r="H42">
+        <v>0.08059143939757173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.009153839230627587</v>
+        <v>-0.0115099338805125</v>
       </c>
       <c r="C43">
-        <v>-0.002611984263549629</v>
+        <v>-0.004311925617596347</v>
       </c>
       <c r="D43">
-        <v>-0.005577588323806648</v>
+        <v>-0.003185473751674906</v>
       </c>
       <c r="E43">
-        <v>0.005598914347016512</v>
+        <v>0.001711961781078312</v>
       </c>
       <c r="F43">
-        <v>-0.02866358606384821</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.004396431369958958</v>
+      </c>
+      <c r="G43">
+        <v>-0.006382376126562703</v>
+      </c>
+      <c r="H43">
+        <v>0.004090208904167564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02313053613383015</v>
+        <v>-0.004994326102950394</v>
       </c>
       <c r="C44">
-        <v>0.01218012743364681</v>
+        <v>0.04033743219886571</v>
       </c>
       <c r="D44">
-        <v>-0.02050696139350299</v>
+        <v>-0.003724485775201432</v>
       </c>
       <c r="E44">
-        <v>0.02184665301953182</v>
+        <v>0.005987472150147417</v>
       </c>
       <c r="F44">
-        <v>-0.07872971658435721</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02673673169475998</v>
+      </c>
+      <c r="G44">
+        <v>0.0008512557156363581</v>
+      </c>
+      <c r="H44">
+        <v>0.06008592101255574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01724466362399994</v>
+        <v>-0.001660974485496892</v>
       </c>
       <c r="C46">
-        <v>-0.002324823911051494</v>
+        <v>0.01182039062939798</v>
       </c>
       <c r="D46">
-        <v>-0.03608386454790753</v>
+        <v>-0.01030463408909594</v>
       </c>
       <c r="E46">
-        <v>-0.0133252919179326</v>
+        <v>0.0008342063817643588</v>
       </c>
       <c r="F46">
-        <v>-0.07612078720197434</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01334197884394174</v>
+      </c>
+      <c r="G46">
+        <v>0.006298163913032033</v>
+      </c>
+      <c r="H46">
+        <v>0.01138099671386323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07125858876302249</v>
+        <v>-0.05024579228311426</v>
       </c>
       <c r="C47">
-        <v>-0.03145411583786972</v>
+        <v>0.06613894531583042</v>
       </c>
       <c r="D47">
-        <v>-0.01938590881035865</v>
+        <v>0.009733980111370144</v>
       </c>
       <c r="E47">
-        <v>-0.03398847618352351</v>
+        <v>-0.01600516129304887</v>
       </c>
       <c r="F47">
-        <v>-0.007656345832766589</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.007919578865611419</v>
+      </c>
+      <c r="G47">
+        <v>-0.003258353840857374</v>
+      </c>
+      <c r="H47">
+        <v>-0.03539357636780613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01987561088757215</v>
+        <v>-0.01078536615479014</v>
       </c>
       <c r="C48">
-        <v>-0.006187830836345457</v>
+        <v>0.01529230787904711</v>
       </c>
       <c r="D48">
-        <v>-0.01285301084806096</v>
+        <v>-0.0001240407354484009</v>
       </c>
       <c r="E48">
-        <v>-0.002756505518478432</v>
+        <v>-0.003313904561400286</v>
       </c>
       <c r="F48">
-        <v>-0.02865342087177121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.00720180515891557</v>
+      </c>
+      <c r="G48">
+        <v>0.001944660580726547</v>
+      </c>
+      <c r="H48">
+        <v>0.01571314777583256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07781554611780157</v>
+        <v>-0.05519895389952316</v>
       </c>
       <c r="C50">
-        <v>-0.006588149802017648</v>
+        <v>0.06302051649885974</v>
       </c>
       <c r="D50">
-        <v>-0.0437168005054334</v>
+        <v>0.008490126617103062</v>
       </c>
       <c r="E50">
-        <v>-0.02783346537019444</v>
+        <v>-0.01814166306487634</v>
       </c>
       <c r="F50">
-        <v>-0.0191904274639437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02821505487325028</v>
+      </c>
+      <c r="G50">
+        <v>-0.007540159229328448</v>
+      </c>
+      <c r="H50">
+        <v>-0.02504692784264811</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01865082211901254</v>
+        <v>-0.01161562153180041</v>
       </c>
       <c r="C51">
-        <v>0.002912297621303362</v>
+        <v>0.01678032257651986</v>
       </c>
       <c r="D51">
-        <v>0.01005792866491837</v>
+        <v>-0.00527699630926145</v>
       </c>
       <c r="E51">
-        <v>0.01849133991021617</v>
+        <v>-0.007463347734477718</v>
       </c>
       <c r="F51">
-        <v>-0.0900565591910135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01604317185908563</v>
+      </c>
+      <c r="G51">
+        <v>0.01049557420926531</v>
+      </c>
+      <c r="H51">
+        <v>0.04753415967844</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08833701311297398</v>
+        <v>-0.06825811559260551</v>
       </c>
       <c r="C53">
-        <v>-0.03345841494033489</v>
+        <v>0.0987646165554544</v>
       </c>
       <c r="D53">
-        <v>-0.04348208490943582</v>
+        <v>0.01149311584464442</v>
       </c>
       <c r="E53">
-        <v>-0.06873777599130097</v>
+        <v>-0.04204957275093257</v>
       </c>
       <c r="F53">
-        <v>0.02246727874730235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0009856328648520242</v>
+      </c>
+      <c r="G53">
+        <v>-0.001535305326814284</v>
+      </c>
+      <c r="H53">
+        <v>-0.04053023602693587</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02794031335815878</v>
+        <v>-0.02069343084172577</v>
       </c>
       <c r="C54">
-        <v>0.003894106166202351</v>
+        <v>0.0008258614595410844</v>
       </c>
       <c r="D54">
-        <v>0.005708452341489576</v>
+        <v>0.005833040352124864</v>
       </c>
       <c r="E54">
-        <v>-0.0094138450890019</v>
+        <v>0.001804308611740114</v>
       </c>
       <c r="F54">
-        <v>-0.03032054279984292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02380937967695516</v>
+      </c>
+      <c r="G54">
+        <v>0.004845368238368549</v>
+      </c>
+      <c r="H54">
+        <v>0.004312346488223882</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0754177297246053</v>
+        <v>-0.04880554735417579</v>
       </c>
       <c r="C55">
-        <v>-0.02621368425867533</v>
+        <v>0.08844452127075433</v>
       </c>
       <c r="D55">
-        <v>-0.05881899667892276</v>
+        <v>0.009290095588160909</v>
       </c>
       <c r="E55">
-        <v>-0.04709749572224759</v>
+        <v>-0.0314330096620196</v>
       </c>
       <c r="F55">
-        <v>0.02022894639881578</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.004360370769992247</v>
+      </c>
+      <c r="G55">
+        <v>-0.008399325066795244</v>
+      </c>
+      <c r="H55">
+        <v>-0.04092019582924789</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1225066170080413</v>
+        <v>-0.1016984874663572</v>
       </c>
       <c r="C56">
-        <v>-0.05613550658064894</v>
+        <v>0.1314135983964976</v>
       </c>
       <c r="D56">
-        <v>-0.0434838852539858</v>
+        <v>0.02207505402567414</v>
       </c>
       <c r="E56">
-        <v>-0.09712349458569924</v>
+        <v>-0.04630680382643436</v>
       </c>
       <c r="F56">
-        <v>0.05015794835879241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.009831033407942485</v>
+      </c>
+      <c r="G56">
+        <v>0.006090433665893489</v>
+      </c>
+      <c r="H56">
+        <v>-0.08632570040356792</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03720700259531944</v>
+        <v>-0.01964762781172163</v>
       </c>
       <c r="C57">
-        <v>-0.01860171111814544</v>
+        <v>0.02922184988278228</v>
       </c>
       <c r="D57">
-        <v>-0.02349467530409351</v>
+        <v>-0.02238212300188462</v>
       </c>
       <c r="E57">
-        <v>0.04503107543140166</v>
+        <v>0.02808436329356153</v>
       </c>
       <c r="F57">
-        <v>-0.04483332085611085</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02038255158671494</v>
+      </c>
+      <c r="G57">
+        <v>0.006669440599251756</v>
+      </c>
+      <c r="H57">
+        <v>0.06033312704258554</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1432063913358556</v>
+        <v>-0.06423504848472773</v>
       </c>
       <c r="C58">
-        <v>-0.1869479838696716</v>
+        <v>0.2286326247443488</v>
       </c>
       <c r="D58">
-        <v>-0.2086265245606333</v>
+        <v>-0.009396932608537278</v>
       </c>
       <c r="E58">
-        <v>0.1699201785110429</v>
+        <v>0.9233746467179578</v>
       </c>
       <c r="F58">
-        <v>-0.5983745821114985</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.1867837146744224</v>
+      </c>
+      <c r="G58">
+        <v>0.1393029086204981</v>
+      </c>
+      <c r="H58">
+        <v>-0.1038160173607657</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08218601099472279</v>
+        <v>-0.2072586263747377</v>
       </c>
       <c r="C59">
-        <v>-0.05225030968710543</v>
+        <v>-0.1639128421265366</v>
       </c>
       <c r="D59">
-        <v>0.1814669263935549</v>
+        <v>0.02120454917736013</v>
       </c>
       <c r="E59">
-        <v>0.07221588354310816</v>
+        <v>0.02683661060644635</v>
       </c>
       <c r="F59">
-        <v>-0.04886444417977291</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.009568728996424492</v>
+      </c>
+      <c r="G59">
+        <v>0.001265092135535954</v>
+      </c>
+      <c r="H59">
+        <v>0.01745850754359336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1533380215605075</v>
+        <v>-0.2318197708373075</v>
       </c>
       <c r="C60">
-        <v>-0.108828450168553</v>
+        <v>0.09975232073998964</v>
       </c>
       <c r="D60">
-        <v>0.008638955156374535</v>
+        <v>0.01015934012135014</v>
       </c>
       <c r="E60">
-        <v>0.03692013602161408</v>
+        <v>-0.03484841783735939</v>
       </c>
       <c r="F60">
-        <v>-0.1447077012248169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.09227999354975693</v>
+      </c>
+      <c r="G60">
+        <v>0.1231148259714977</v>
+      </c>
+      <c r="H60">
+        <v>0.3796494924195594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02449758677795365</v>
+        <v>-0.009751231054714832</v>
       </c>
       <c r="C61">
-        <v>-0.009830092816370754</v>
+        <v>0.06543470982866938</v>
       </c>
       <c r="D61">
-        <v>-0.04196733586695599</v>
+        <v>-0.001284349309750565</v>
       </c>
       <c r="E61">
-        <v>-0.01241178294502858</v>
+        <v>-0.01202295987090951</v>
       </c>
       <c r="F61">
-        <v>-0.03070835246456226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.001500677182197564</v>
+      </c>
+      <c r="G61">
+        <v>0.0226680096214606</v>
+      </c>
+      <c r="H61">
+        <v>0.05437290435085508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01494074611621738</v>
+        <v>-0.00767161526843138</v>
       </c>
       <c r="C63">
-        <v>0.0002120845331113286</v>
+        <v>0.02247435593503884</v>
       </c>
       <c r="D63">
-        <v>-0.01874578870746833</v>
+        <v>-0.005774465565014411</v>
       </c>
       <c r="E63">
-        <v>-0.003877463663227962</v>
+        <v>-0.01673030649536387</v>
       </c>
       <c r="F63">
-        <v>-0.00615179687995026</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01025968803747935</v>
+      </c>
+      <c r="G63">
+        <v>0.005548917221105284</v>
+      </c>
+      <c r="H63">
+        <v>0.01235114905933599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03976721367932099</v>
+        <v>-0.03473030852856818</v>
       </c>
       <c r="C64">
-        <v>-0.00197369219111382</v>
+        <v>0.04373271863333041</v>
       </c>
       <c r="D64">
-        <v>-0.0256999420226166</v>
+        <v>-0.0002282198771437256</v>
       </c>
       <c r="E64">
-        <v>-0.01429262779434757</v>
+        <v>-0.02439328663029055</v>
       </c>
       <c r="F64">
-        <v>-0.03035457049174099</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.002725904081920851</v>
+      </c>
+      <c r="G64">
+        <v>-0.004529724237672935</v>
+      </c>
+      <c r="H64">
+        <v>0.03118499662300267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.041967284428903</v>
+        <v>-0.04054506176239904</v>
       </c>
       <c r="C65">
-        <v>-0.01238511870995617</v>
+        <v>0.08324932721778418</v>
       </c>
       <c r="D65">
-        <v>-0.03832017172797302</v>
+        <v>-0.0105717060354278</v>
       </c>
       <c r="E65">
-        <v>-0.03343743514909699</v>
+        <v>-0.03218658930176297</v>
       </c>
       <c r="F65">
-        <v>-0.0308126250278671</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.009535388672893911</v>
+      </c>
+      <c r="G65">
+        <v>0.0411349596504462</v>
+      </c>
+      <c r="H65">
+        <v>0.05426270700495274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03380738145382112</v>
+        <v>-0.009501477748707958</v>
       </c>
       <c r="C66">
-        <v>-0.0234633747732179</v>
+        <v>0.1177490167698276</v>
       </c>
       <c r="D66">
-        <v>-0.05892587020386227</v>
+        <v>-0.004612314549816189</v>
       </c>
       <c r="E66">
-        <v>-0.05423311712316601</v>
+        <v>-0.01492586814667294</v>
       </c>
       <c r="F66">
-        <v>-0.05402379079985567</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01387402434395658</v>
+      </c>
+      <c r="G66">
+        <v>0.04872777192115351</v>
+      </c>
+      <c r="H66">
+        <v>0.07566436128760569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0263092486921423</v>
+        <v>-0.04967483906358055</v>
       </c>
       <c r="C67">
-        <v>-0.01676699833262239</v>
+        <v>0.03205145115977425</v>
       </c>
       <c r="D67">
-        <v>0.005297788017940736</v>
+        <v>0.01114924440198162</v>
       </c>
       <c r="E67">
-        <v>0.0179961208417733</v>
+        <v>-0.01315785241635167</v>
       </c>
       <c r="F67">
-        <v>-0.02570904238274829</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.001637006056702478</v>
+      </c>
+      <c r="G67">
+        <v>0.01902977425004911</v>
+      </c>
+      <c r="H67">
+        <v>0.02789818905873911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0937019939930424</v>
+        <v>-0.2057940558614224</v>
       </c>
       <c r="C68">
-        <v>-0.04477227754177394</v>
+        <v>-0.2055122015814856</v>
       </c>
       <c r="D68">
-        <v>0.1990339360945615</v>
+        <v>0.001085579570405467</v>
       </c>
       <c r="E68">
-        <v>0.08895752245398329</v>
+        <v>0.0417630028980787</v>
       </c>
       <c r="F68">
-        <v>-0.0286433913629658</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02672932904934242</v>
+      </c>
+      <c r="G68">
+        <v>-0.04187050923159569</v>
+      </c>
+      <c r="H68">
+        <v>-0.02669726735314446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06059044917389553</v>
+        <v>-0.053826176713191</v>
       </c>
       <c r="C69">
-        <v>-0.0273506545788747</v>
+        <v>0.06266468992913068</v>
       </c>
       <c r="D69">
-        <v>-0.01595076398741427</v>
+        <v>0.01463951511988031</v>
       </c>
       <c r="E69">
-        <v>-0.03797712340801864</v>
+        <v>-0.02906033524134967</v>
       </c>
       <c r="F69">
-        <v>-0.02030710430184744</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-5.977247014364606e-05</v>
+      </c>
+      <c r="G69">
+        <v>0.01293390096198122</v>
+      </c>
+      <c r="H69">
+        <v>-0.007660135033268496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.09078581017514044</v>
+        <v>-0.1846296850504947</v>
       </c>
       <c r="C71">
-        <v>-0.04850637189746449</v>
+        <v>-0.1597060653972681</v>
       </c>
       <c r="D71">
-        <v>0.1918463885727217</v>
+        <v>0.008122456325317891</v>
       </c>
       <c r="E71">
-        <v>0.1283190910396311</v>
+        <v>0.04457209309092912</v>
       </c>
       <c r="F71">
-        <v>-0.01912345702564729</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02445302915041703</v>
+      </c>
+      <c r="G71">
+        <v>-0.04419216258223241</v>
+      </c>
+      <c r="H71">
+        <v>-0.006607239043866835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09178740513778474</v>
+        <v>-0.05485874022271704</v>
       </c>
       <c r="C72">
-        <v>-0.05216384873652861</v>
+        <v>0.1008809236084644</v>
       </c>
       <c r="D72">
-        <v>-0.08061506134602851</v>
+        <v>0.01658568268250442</v>
       </c>
       <c r="E72">
-        <v>-0.08031459637989802</v>
+        <v>-0.03918388956718232</v>
       </c>
       <c r="F72">
-        <v>-0.1350920297864857</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02437625733045261</v>
+      </c>
+      <c r="G72">
+        <v>0.0638755568247599</v>
+      </c>
+      <c r="H72">
+        <v>0.08103309926283614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1803693913652973</v>
+        <v>-0.3019536611829483</v>
       </c>
       <c r="C73">
-        <v>-0.1774723312248052</v>
+        <v>0.1536860634302196</v>
       </c>
       <c r="D73">
-        <v>-0.02406171568357944</v>
+        <v>0.009073546819349897</v>
       </c>
       <c r="E73">
-        <v>0.07090364347847065</v>
+        <v>-0.0250248748269694</v>
       </c>
       <c r="F73">
-        <v>-0.1573433988528189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1473904609009329</v>
+      </c>
+      <c r="G73">
+        <v>0.1299682921342674</v>
+      </c>
+      <c r="H73">
+        <v>0.4782402677339923</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1146635881026351</v>
+        <v>-0.09399332218170249</v>
       </c>
       <c r="C74">
-        <v>-0.05361035058198278</v>
+        <v>0.135568670896536</v>
       </c>
       <c r="D74">
-        <v>-0.04607357712543848</v>
+        <v>0.02109215398269599</v>
       </c>
       <c r="E74">
-        <v>-0.08036198536767081</v>
+        <v>-0.04386938125078025</v>
       </c>
       <c r="F74">
-        <v>0.05332224475258152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.001313225416419294</v>
+      </c>
+      <c r="G74">
+        <v>0.003412669894987896</v>
+      </c>
+      <c r="H74">
+        <v>-0.05633244359970383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2044741269700197</v>
+        <v>-0.2038244924199119</v>
       </c>
       <c r="C75">
-        <v>-0.1118252528281197</v>
+        <v>0.2238069057271973</v>
       </c>
       <c r="D75">
-        <v>-0.04217934135651766</v>
+        <v>0.04550428762607522</v>
       </c>
       <c r="E75">
-        <v>-0.1971406005187095</v>
+        <v>-0.07459677358421872</v>
       </c>
       <c r="F75">
-        <v>0.0686832287173363</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03025415253305774</v>
+      </c>
+      <c r="G75">
+        <v>0.02914229418733253</v>
+      </c>
+      <c r="H75">
+        <v>-0.1819924172114291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2494150545574728</v>
+        <v>-0.1385032697394073</v>
       </c>
       <c r="C76">
-        <v>-0.09249188106973952</v>
+        <v>0.1917719524087247</v>
       </c>
       <c r="D76">
-        <v>-0.05664411941480454</v>
+        <v>0.0376600574670919</v>
       </c>
       <c r="E76">
-        <v>-0.249705776878884</v>
+        <v>-0.09286969153560651</v>
       </c>
       <c r="F76">
-        <v>0.1372083531437752</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01383800100363349</v>
+      </c>
+      <c r="G76">
+        <v>0.0105801737255754</v>
+      </c>
+      <c r="H76">
+        <v>-0.1487946948217462</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.08592375032727875</v>
+        <v>-0.04168491564171778</v>
       </c>
       <c r="C77">
-        <v>-0.0521519131918582</v>
+        <v>0.08734425055126416</v>
       </c>
       <c r="D77">
-        <v>-0.08400490174759138</v>
+        <v>-0.008630168656139884</v>
       </c>
       <c r="E77">
-        <v>0.05986394131088157</v>
+        <v>0.02678934171539705</v>
       </c>
       <c r="F77">
-        <v>-0.07525471310012642</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01522929513595156</v>
+      </c>
+      <c r="G77">
+        <v>-0.0199583542648092</v>
+      </c>
+      <c r="H77">
+        <v>0.01421436896034803</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04699267461308735</v>
+        <v>-0.02286448178193384</v>
       </c>
       <c r="C78">
-        <v>-0.007860787410299712</v>
+        <v>0.07613450150806345</v>
       </c>
       <c r="D78">
-        <v>-0.08954539350957251</v>
+        <v>-0.002079262066032153</v>
       </c>
       <c r="E78">
-        <v>-0.01992823920585744</v>
+        <v>-9.957909421313259e-05</v>
       </c>
       <c r="F78">
-        <v>-0.09778331986997292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01341155691216083</v>
+      </c>
+      <c r="G78">
+        <v>0.02501378444803825</v>
+      </c>
+      <c r="H78">
+        <v>0.08122658961016185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5319287863598273</v>
+        <v>-0.09261299407580124</v>
       </c>
       <c r="C80">
-        <v>0.8216788124261203</v>
+        <v>0.1190853766250912</v>
       </c>
       <c r="D80">
-        <v>-0.03895137463768415</v>
+        <v>0.00308392935253428</v>
       </c>
       <c r="E80">
-        <v>0.1045148518334589</v>
+        <v>-0.1893038973945503</v>
       </c>
       <c r="F80">
-        <v>-0.02279400439187265</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.9126705230667129</v>
+      </c>
+      <c r="G80">
+        <v>-0.2121855699792921</v>
+      </c>
+      <c r="H80">
+        <v>0.1172941053622081</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1627108400394832</v>
+        <v>-0.1207505757736876</v>
       </c>
       <c r="C81">
-        <v>-0.07507739042211063</v>
+        <v>0.1441511081638164</v>
       </c>
       <c r="D81">
-        <v>-0.026073301943737</v>
+        <v>0.0267049145738583</v>
       </c>
       <c r="E81">
-        <v>-0.1565490248609984</v>
+        <v>-0.04919797038509418</v>
       </c>
       <c r="F81">
-        <v>0.0467771173316323</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.002545426341319235</v>
+      </c>
+      <c r="G81">
+        <v>0.01372268730348619</v>
+      </c>
+      <c r="H81">
+        <v>-0.1089470177627227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.004446989693727203</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.002931123219572298</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0008055795893755439</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01207265213571606</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.003347245386227442</v>
+      </c>
+      <c r="G82">
+        <v>0.001282354697486453</v>
+      </c>
+      <c r="H82">
+        <v>0.001593670486994364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03271717034105105</v>
+        <v>-0.0225039625454652</v>
       </c>
       <c r="C83">
-        <v>-0.02035260065694272</v>
+        <v>0.02058617663702091</v>
       </c>
       <c r="D83">
-        <v>-0.01658424362596779</v>
+        <v>-0.00307245380937027</v>
       </c>
       <c r="E83">
-        <v>0.03477119675749998</v>
+        <v>0.01563519191307681</v>
       </c>
       <c r="F83">
-        <v>-0.04437748763058375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.008330228550237363</v>
+      </c>
+      <c r="G83">
+        <v>0.002429691752325029</v>
+      </c>
+      <c r="H83">
+        <v>0.04203773850380759</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2259185451283152</v>
+        <v>-0.1958070319703342</v>
       </c>
       <c r="C85">
-        <v>-0.1174562878245795</v>
+        <v>0.2248968579676953</v>
       </c>
       <c r="D85">
-        <v>-0.0564859463797009</v>
+        <v>0.03328905564641582</v>
       </c>
       <c r="E85">
-        <v>-0.2235399606425151</v>
+        <v>-0.1022098512458535</v>
       </c>
       <c r="F85">
-        <v>0.09179261567084168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.05256384443750224</v>
+      </c>
+      <c r="G85">
+        <v>0.03095620862604995</v>
+      </c>
+      <c r="H85">
+        <v>-0.1289397202747379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0008071243226069817</v>
+        <v>-0.007993139922697411</v>
       </c>
       <c r="C86">
-        <v>0.004567216990380651</v>
+        <v>0.0364875587075781</v>
       </c>
       <c r="D86">
-        <v>-0.04140514272523174</v>
+        <v>-0.006144724694302218</v>
       </c>
       <c r="E86">
-        <v>-0.006609318360720622</v>
+        <v>0.002835487959857623</v>
       </c>
       <c r="F86">
-        <v>-0.08686777717423967</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01004537480348087</v>
+      </c>
+      <c r="G86">
+        <v>0.003431321853877302</v>
+      </c>
+      <c r="H86">
+        <v>0.06347449945991118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02740510623188728</v>
+        <v>-0.001561700755163683</v>
       </c>
       <c r="C87">
-        <v>-0.008127073139029963</v>
+        <v>0.03969404721674409</v>
       </c>
       <c r="D87">
-        <v>-0.03570181993541786</v>
+        <v>-0.008379812399564935</v>
       </c>
       <c r="E87">
-        <v>0.01135309868884579</v>
+        <v>0.03788995787486048</v>
       </c>
       <c r="F87">
-        <v>-0.09897859891135671</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02584486715907525</v>
+      </c>
+      <c r="G87">
+        <v>0.01801247731158728</v>
+      </c>
+      <c r="H87">
+        <v>0.07673246519536757</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03203855898272032</v>
+        <v>-0.0431521958761726</v>
       </c>
       <c r="C88">
-        <v>-0.005409186409730847</v>
+        <v>0.02597126155581455</v>
       </c>
       <c r="D88">
-        <v>0.005232479959839748</v>
+        <v>-0.01718724836635383</v>
       </c>
       <c r="E88">
-        <v>-0.01145706116856843</v>
+        <v>-0.009758474923307661</v>
       </c>
       <c r="F88">
-        <v>0.00237320733500036</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01606303252952802</v>
+      </c>
+      <c r="G88">
+        <v>0.01170510568325563</v>
+      </c>
+      <c r="H88">
+        <v>-0.006776403810603951</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1505560065059544</v>
+        <v>-0.3222258034600075</v>
       </c>
       <c r="C89">
-        <v>-0.1079333411725656</v>
+        <v>-0.2901009383186827</v>
       </c>
       <c r="D89">
-        <v>0.351140142534484</v>
+        <v>0.01337435241745099</v>
       </c>
       <c r="E89">
-        <v>0.1086936681311736</v>
+        <v>0.03399482006151529</v>
       </c>
       <c r="F89">
-        <v>-0.03782170479639035</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.006026930622252545</v>
+      </c>
+      <c r="G89">
+        <v>-0.02683820579244673</v>
+      </c>
+      <c r="H89">
+        <v>-0.0249959853421796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1185460123498066</v>
+        <v>-0.2681675517227297</v>
       </c>
       <c r="C90">
-        <v>-0.05587702482363192</v>
+        <v>-0.2635007402451386</v>
       </c>
       <c r="D90">
-        <v>0.3234636470891794</v>
+        <v>0.01347728719998331</v>
       </c>
       <c r="E90">
-        <v>0.1142436718367051</v>
+        <v>0.04262193268366914</v>
       </c>
       <c r="F90">
-        <v>0.02329107754585838</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.02472007696183196</v>
+      </c>
+      <c r="G90">
+        <v>-0.04976173618476117</v>
+      </c>
+      <c r="H90">
+        <v>-0.05618936044929212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.251539984962077</v>
+        <v>-0.1852001327314205</v>
       </c>
       <c r="C91">
-        <v>-0.1458009205694666</v>
+        <v>0.1961354188314205</v>
       </c>
       <c r="D91">
-        <v>-0.07205430785727346</v>
+        <v>0.04064594201691075</v>
       </c>
       <c r="E91">
-        <v>-0.2037872400607693</v>
+        <v>-0.08068476677342222</v>
       </c>
       <c r="F91">
-        <v>0.1837665048361219</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.0368198656671693</v>
+      </c>
+      <c r="G91">
+        <v>-0.006913774016057898</v>
+      </c>
+      <c r="H91">
+        <v>-0.1840789729879793</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1791575310314008</v>
+        <v>-0.284931630385014</v>
       </c>
       <c r="C92">
-        <v>-0.1021710297110136</v>
+        <v>-0.1818330111906271</v>
       </c>
       <c r="D92">
-        <v>0.3731070604395643</v>
+        <v>0.05922952363926276</v>
       </c>
       <c r="E92">
-        <v>0.02523455946048029</v>
+        <v>0.03857083505597105</v>
       </c>
       <c r="F92">
-        <v>0.1076553554444047</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.03583762755009866</v>
+      </c>
+      <c r="G92">
+        <v>-0.02016758301212604</v>
+      </c>
+      <c r="H92">
+        <v>-0.1494833204421527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1321759938953677</v>
+        <v>-0.3053879383413582</v>
       </c>
       <c r="C93">
-        <v>-0.1136357899045319</v>
+        <v>-0.2486305259808973</v>
       </c>
       <c r="D93">
-        <v>0.3600335885447107</v>
+        <v>0.02303042294905637</v>
       </c>
       <c r="E93">
-        <v>0.1718360373560948</v>
+        <v>0.05594740001858847</v>
       </c>
       <c r="F93">
-        <v>0.04095324283514913</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01386966232110661</v>
+      </c>
+      <c r="G93">
+        <v>-0.04330291346555528</v>
+      </c>
+      <c r="H93">
+        <v>0.000754741051140285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2637665458551076</v>
+        <v>-0.2297625963085245</v>
       </c>
       <c r="C94">
-        <v>-0.1713492306239641</v>
+        <v>0.2375013979095734</v>
       </c>
       <c r="D94">
-        <v>-0.01442952389514545</v>
+        <v>0.03176954879809823</v>
       </c>
       <c r="E94">
-        <v>-0.2903320734525349</v>
+        <v>-0.1118997058131357</v>
       </c>
       <c r="F94">
-        <v>0.06691336383474104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.07607104998797019</v>
+      </c>
+      <c r="G94">
+        <v>0.08669206752242123</v>
+      </c>
+      <c r="H94">
+        <v>-0.4613359509320765</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.03326139788222733</v>
+        <v>-0.0473186334404399</v>
       </c>
       <c r="C95">
-        <v>-0.1069939164715106</v>
+        <v>0.1088112027144872</v>
       </c>
       <c r="D95">
-        <v>-0.03657595537357262</v>
+        <v>0.01431030979200931</v>
       </c>
       <c r="E95">
-        <v>-0.01684604605435795</v>
+        <v>0.03476634611476578</v>
       </c>
       <c r="F95">
-        <v>-0.04255769640379663</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08683146648238659</v>
+      </c>
+      <c r="G95">
+        <v>0.02100373223204158</v>
+      </c>
+      <c r="H95">
+        <v>0.05074121265399581</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1559671802519839</v>
+        <v>-0.1858023710649992</v>
       </c>
       <c r="C98">
-        <v>-0.1232011090953979</v>
+        <v>0.07396974248012791</v>
       </c>
       <c r="D98">
-        <v>0.01819390519873089</v>
+        <v>0.03130362717468131</v>
       </c>
       <c r="E98">
-        <v>0.09830420432408618</v>
+        <v>0.0241254208041538</v>
       </c>
       <c r="F98">
-        <v>-0.1358060813688298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.06441429144143981</v>
+      </c>
+      <c r="G98">
+        <v>0.04628278922886102</v>
+      </c>
+      <c r="H98">
+        <v>0.3267545228344706</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.008727440939182861</v>
+        <v>-0.004315068481965207</v>
       </c>
       <c r="C101">
-        <v>0.006936846227131884</v>
+        <v>0.02038394987857723</v>
       </c>
       <c r="D101">
-        <v>-0.03220038316789437</v>
+        <v>-0.006023679063082518</v>
       </c>
       <c r="E101">
-        <v>0.01582535060433714</v>
+        <v>0.03052468597218851</v>
       </c>
       <c r="F101">
-        <v>-0.1846595383333866</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03437124315240083</v>
+      </c>
+      <c r="G101">
+        <v>0.02700957818731112</v>
+      </c>
+      <c r="H101">
+        <v>0.006876592258472471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1092500780850893</v>
+        <v>-0.1000374840713108</v>
       </c>
       <c r="C102">
-        <v>-0.05606129458254802</v>
+        <v>0.1086464202122544</v>
       </c>
       <c r="D102">
-        <v>-0.03136745228844894</v>
+        <v>0.009465175464213342</v>
       </c>
       <c r="E102">
-        <v>-0.1118751372353604</v>
+        <v>-0.05378280837551888</v>
       </c>
       <c r="F102">
-        <v>0.06861883617182563</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.02303583406820709</v>
+      </c>
+      <c r="G102">
+        <v>0.01674844727134197</v>
+      </c>
+      <c r="H102">
+        <v>-0.0697681785076459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03985569403994487</v>
+        <v>-0.009504734962471157</v>
       </c>
       <c r="C103">
-        <v>-0.002488306797965986</v>
+        <v>0.01398719676648067</v>
       </c>
       <c r="D103">
-        <v>-0.01378681745476817</v>
+        <v>0.001288803246699377</v>
       </c>
       <c r="E103">
-        <v>-0.04022410728219501</v>
+        <v>-0.00411595596443553</v>
       </c>
       <c r="F103">
-        <v>-0.01002960960410274</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.0159022469732259</v>
+      </c>
+      <c r="G103">
+        <v>0.001172429894495124</v>
+      </c>
+      <c r="H103">
+        <v>-0.009822481776285199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.09159305666980194</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.009953071510330775</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9816110330279133</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04413360661221057</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.01674952531698932</v>
+      </c>
+      <c r="G104">
+        <v>0.1113956876185324</v>
+      </c>
+      <c r="H104">
+        <v>-0.06037762728845249</v>
       </c>
     </row>
   </sheetData>
